--- a/Projeto Livros.xlsx
+++ b/Projeto Livros.xlsx
@@ -5,23 +5,24 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamille\OneDrive\Desktop\projeto livros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamille\OneDrive\Desktop\github\Minha-Jornada-Literaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="5" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="239"/>
   </bookViews>
   <sheets>
-    <sheet name="Base_de_dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
-    <sheet name="genero" sheetId="2" r:id="rId3"/>
-    <sheet name="total" sheetId="3" r:id="rId4"/>
-    <sheet name="media" sheetId="9" r:id="rId5"/>
-    <sheet name="pagina por mes" sheetId="13" r:id="rId6"/>
-    <sheet name="livros anos" sheetId="14" r:id="rId7"/>
-    <sheet name="nota" sheetId="5" r:id="rId8"/>
-    <sheet name="autores" sheetId="6" r:id="rId9"/>
-    <sheet name="paginas" sheetId="7" r:id="rId10"/>
+    <sheet name="Base_de_dados (2)" sheetId="15" r:id="rId1"/>
+    <sheet name="Base_de_dados" sheetId="1" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="genero" sheetId="2" r:id="rId4"/>
+    <sheet name="total" sheetId="3" r:id="rId5"/>
+    <sheet name="media" sheetId="9" r:id="rId6"/>
+    <sheet name="pagina por mes" sheetId="13" r:id="rId7"/>
+    <sheet name="livros anos" sheetId="14" r:id="rId8"/>
+    <sheet name="nota" sheetId="5" r:id="rId9"/>
+    <sheet name="autores" sheetId="6" r:id="rId10"/>
+    <sheet name="paginas" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Ano1">#N/A</definedName>
@@ -29,13 +30,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="163">
   <si>
     <t>Autor</t>
   </si>
@@ -755,7 +756,536 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC4D79B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC4D79B"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1384,13 +1914,13 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 2" pivot="0" table="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 3" pivot="0" table="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2408,11 +2938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="229645248"/>
-        <c:axId val="230086160"/>
+        <c:axId val="227592616"/>
+        <c:axId val="227593008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229645248"/>
+        <c:axId val="227592616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2985,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230086160"/>
+        <c:crossAx val="227593008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2463,7 +2993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230086160"/>
+        <c:axId val="227593008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +3003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229645248"/>
+        <c:crossAx val="227592616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,11 +3366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229682032"/>
-        <c:axId val="230085648"/>
+        <c:axId val="229684272"/>
+        <c:axId val="229682704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229682032"/>
+        <c:axId val="229684272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +3413,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230085648"/>
+        <c:crossAx val="229682704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +3421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230085648"/>
+        <c:axId val="229682704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +3431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229682032"/>
+        <c:crossAx val="229684272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3292,11 +3822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="277338992"/>
-        <c:axId val="230085240"/>
+        <c:axId val="229688976"/>
+        <c:axId val="229685056"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="230085240"/>
+        <c:axId val="229685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,12 +3836,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277338992"/>
+        <c:crossAx val="229688976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="277338992"/>
+        <c:axId val="229688976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230085240"/>
+        <c:crossAx val="229685056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3633,6 +4163,20 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -4057,11 +4601,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="229189800"/>
-        <c:axId val="229787592"/>
+        <c:axId val="229687016"/>
+        <c:axId val="229683488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229189800"/>
+        <c:axId val="229687016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4648,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229787592"/>
+        <c:crossAx val="229683488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4112,7 +4656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229787592"/>
+        <c:axId val="229683488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229189800"/>
+        <c:crossAx val="229687016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4451,11 +4995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="230033208"/>
-        <c:axId val="228200112"/>
+        <c:axId val="229687800"/>
+        <c:axId val="229681920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230033208"/>
+        <c:axId val="229687800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4498,7 +5042,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228200112"/>
+        <c:crossAx val="229681920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,7 +5050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228200112"/>
+        <c:axId val="229681920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +5101,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230033208"/>
+        <c:crossAx val="229687800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4872,11 +5416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="278345104"/>
-        <c:axId val="278349024"/>
+        <c:axId val="229689368"/>
+        <c:axId val="229682312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278345104"/>
+        <c:axId val="229689368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,7 +5463,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278349024"/>
+        <c:crossAx val="229682312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4927,7 +5471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278349024"/>
+        <c:axId val="229682312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,7 +5522,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278345104"/>
+        <c:crossAx val="229689368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5289,11 +5833,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278348632"/>
-        <c:axId val="278349416"/>
+        <c:axId val="229685840"/>
+        <c:axId val="229683096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278348632"/>
+        <c:axId val="229685840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,7 +5880,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278349416"/>
+        <c:crossAx val="229683096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5344,7 +5888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278349416"/>
+        <c:axId val="229683096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5395,7 +5939,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278348632"/>
+        <c:crossAx val="229685840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10440,6 +10984,140 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Elipse 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="678180"/>
+          <a:ext cx="762000" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11346180" y="807720"/>
+          <a:ext cx="822960" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Voltar ao</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Elipse 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
@@ -10557,7 +11235,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13492,7 +14170,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13599,7 +14277,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13634,7 +14312,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13711,7 +14389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13746,7 +14424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13781,7 +14459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15410,7 +16088,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Título" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="13">
     <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -15549,6 +16227,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15676,7 +16366,7 @@
     <dataField name="Média de Dias de leitura" fld="7" subtotal="average" baseField="0" baseItem="30404080" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15798,10 +16488,10 @@
     <dataField name="Soma de Nº de páginas" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="14">
+    <format dxfId="27">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="1">
@@ -16088,7 +16778,7 @@
     <dataField name="Média de Nota" fld="4" subtotal="average" baseField="5" baseItem="3"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="12">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16097,7 +16787,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16106,7 +16796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16115,7 +16805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16124,7 +16814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16133,7 +16823,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16142,7 +16832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16151,7 +16841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16160,7 +16850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16169,7 +16859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16178,7 +16868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -16187,7 +16877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="14">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16381,7 +17071,7 @@
     <dataField name="Soma de Nº de páginas" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16482,26 +17172,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K111" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:K111" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:K111"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Título" dataDxfId="26"/>
-    <tableColumn id="2" name="Autor" dataDxfId="25"/>
-    <tableColumn id="3" name="Inicio da leitura" dataDxfId="24"/>
-    <tableColumn id="4" name="Fim da leitura" dataDxfId="23"/>
-    <tableColumn id="5" name="Nota" dataDxfId="22"/>
-    <tableColumn id="6" name="Gênero" dataDxfId="21"/>
-    <tableColumn id="7" name="Nº de páginas" dataDxfId="20"/>
-    <tableColumn id="8" name="Dias de leitura" dataDxfId="19">
+    <tableColumn id="1" name="Título" dataDxfId="10"/>
+    <tableColumn id="2" name="Autor" dataDxfId="9"/>
+    <tableColumn id="3" name="Inicio da leitura" dataDxfId="8"/>
+    <tableColumn id="4" name="Fim da leitura" dataDxfId="7"/>
+    <tableColumn id="5" name="Nota" dataDxfId="6"/>
+    <tableColumn id="6" name="Gênero" dataDxfId="5"/>
+    <tableColumn id="7" name="Nº de páginas" dataDxfId="4"/>
+    <tableColumn id="8" name="Dias de leitura" dataDxfId="3">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Pace(Páginas/Dias" dataDxfId="18">
+    <tableColumn id="9" name="Pace(Páginas/Dias" dataDxfId="2">
       <calculatedColumnFormula>G2/H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês" dataDxfId="17">
+    <tableColumn id="12" name="Mês" dataDxfId="1">
       <calculatedColumnFormula>TEXT(D2,"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Ano" dataDxfId="16">
+    <tableColumn id="10" name="Ano" dataDxfId="0">
+      <calculatedColumnFormula>TEXT(D2,"aaaa")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K111" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="A1:K111"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Título" dataDxfId="39"/>
+    <tableColumn id="2" name="Autor" dataDxfId="38"/>
+    <tableColumn id="3" name="Inicio da leitura" dataDxfId="37"/>
+    <tableColumn id="4" name="Fim da leitura" dataDxfId="36"/>
+    <tableColumn id="5" name="Nota" dataDxfId="35"/>
+    <tableColumn id="6" name="Gênero" dataDxfId="34"/>
+    <tableColumn id="7" name="Nº de páginas" dataDxfId="33"/>
+    <tableColumn id="8" name="Dias de leitura" dataDxfId="32">
+      <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Pace(Páginas/Dias" dataDxfId="31">
+      <calculatedColumnFormula>G2/H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Mês" dataDxfId="30">
+      <calculatedColumnFormula>TEXT(D2,"mmm")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Ano" dataDxfId="29">
       <calculatedColumnFormula>TEXT(D2,"aaaa")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16774,6 +17492,4552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O111"/>
   <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15" style="5" customWidth="1"/>
+    <col min="9" max="10" width="18.77734375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="21">
+        <v>45623</v>
+      </c>
+      <c r="D2" s="21">
+        <v>45626</v>
+      </c>
+      <c r="E2" s="22">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="22">
+        <v>308</v>
+      </c>
+      <c r="H2" s="22">
+        <f>D2-C2</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="23">
+        <f>G2/H2</f>
+        <v>102.66666666666667</v>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f t="shared" ref="J2:J65" si="0">TEXT(D2,"mmm")</f>
+        <v>nov</v>
+      </c>
+      <c r="K2" s="24" t="str">
+        <f t="shared" ref="K2:K65" si="1">TEXT(D2,"aaaa")</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="27">
+        <v>45140</v>
+      </c>
+      <c r="D3" s="27">
+        <v>45144</v>
+      </c>
+      <c r="E3" s="28">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28">
+        <v>416</v>
+      </c>
+      <c r="H3" s="28">
+        <f>D3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="29">
+        <f>G3/H3</f>
+        <v>104</v>
+      </c>
+      <c r="J3" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ago</v>
+      </c>
+      <c r="K3" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="21">
+        <v>45566</v>
+      </c>
+      <c r="D4" s="21">
+        <v>45580</v>
+      </c>
+      <c r="E4" s="22">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="22">
+        <v>304</v>
+      </c>
+      <c r="H4" s="22">
+        <f>D4-C4</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="23">
+        <f>G4/H4</f>
+        <v>21.714285714285715</v>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="27">
+        <v>45322</v>
+      </c>
+      <c r="D5" s="27">
+        <v>45325</v>
+      </c>
+      <c r="E5" s="28">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="28">
+        <v>333</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" ref="H5:H64" si="2">D5-C5</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I68" si="3">G5/H5</f>
+        <v>111</v>
+      </c>
+      <c r="J5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K5" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21">
+        <v>45151</v>
+      </c>
+      <c r="D6" s="21">
+        <v>45153</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="22">
+        <v>464</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="J6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ago</v>
+      </c>
+      <c r="K6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27">
+        <v>45144</v>
+      </c>
+      <c r="D7" s="27">
+        <v>45150</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28">
+        <v>432</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>ago</v>
+      </c>
+      <c r="K7" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45154</v>
+      </c>
+      <c r="D8" s="21">
+        <v>45157</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="22">
+        <v>567</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="J8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>ago</v>
+      </c>
+      <c r="K8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27">
+        <v>45852</v>
+      </c>
+      <c r="D9" s="27">
+        <v>45854</v>
+      </c>
+      <c r="E9" s="28">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="28">
+        <v>512</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="29">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="J9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K9" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45855</v>
+      </c>
+      <c r="D10" s="21">
+        <v>45857</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22">
+        <v>384</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="J10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="27">
+        <v>45857</v>
+      </c>
+      <c r="D11" s="27">
+        <v>45861</v>
+      </c>
+      <c r="E11" s="28">
+        <v>4</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="28">
+        <v>432</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="J11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="21">
+        <v>45353</v>
+      </c>
+      <c r="D12" s="21">
+        <v>45354</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="22">
+        <v>264</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="27">
+        <v>45355</v>
+      </c>
+      <c r="D13" s="27">
+        <v>45357</v>
+      </c>
+      <c r="E13" s="28">
+        <v>4</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="28">
+        <v>285</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" si="3"/>
+        <v>142.5</v>
+      </c>
+      <c r="J13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45358</v>
+      </c>
+      <c r="D14" s="21">
+        <v>45359</v>
+      </c>
+      <c r="E14" s="22">
+        <v>4</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="22">
+        <v>304</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="J14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K14" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="27">
+        <v>45360</v>
+      </c>
+      <c r="D15" s="27">
+        <v>45363</v>
+      </c>
+      <c r="E15" s="28">
+        <v>4</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="28">
+        <v>301</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="3"/>
+        <v>100.33333333333333</v>
+      </c>
+      <c r="J15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K15" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21">
+        <v>45394</v>
+      </c>
+      <c r="D16" s="21">
+        <v>45396</v>
+      </c>
+      <c r="E16" s="22">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="22">
+        <v>406</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="J16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="27">
+        <v>45397</v>
+      </c>
+      <c r="D17" s="27">
+        <v>45399</v>
+      </c>
+      <c r="E17" s="28">
+        <v>5</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="28">
+        <v>392</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="J17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K17" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21">
+        <v>45399</v>
+      </c>
+      <c r="D18" s="21">
+        <v>45401</v>
+      </c>
+      <c r="E18" s="22">
+        <v>5</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="22">
+        <v>406</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="J18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K18" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27">
+        <v>45402</v>
+      </c>
+      <c r="D19" s="27">
+        <v>45405</v>
+      </c>
+      <c r="E19" s="28">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="28">
+        <v>518</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="3"/>
+        <v>172.66666666666666</v>
+      </c>
+      <c r="J19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="21">
+        <v>45406</v>
+      </c>
+      <c r="D20" s="21">
+        <v>45409</v>
+      </c>
+      <c r="E20" s="22">
+        <v>5</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="22">
+        <v>644</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="3"/>
+        <v>214.66666666666666</v>
+      </c>
+      <c r="J20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="27">
+        <v>45410</v>
+      </c>
+      <c r="D21" s="27">
+        <v>45413</v>
+      </c>
+      <c r="E21" s="28">
+        <v>5</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="28">
+        <v>644</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="3"/>
+        <v>214.66666666666666</v>
+      </c>
+      <c r="J21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mai</v>
+      </c>
+      <c r="K21" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="21">
+        <v>45414</v>
+      </c>
+      <c r="D22" s="21">
+        <v>45417</v>
+      </c>
+      <c r="E22" s="22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="22">
+        <v>658</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" si="3"/>
+        <v>219.33333333333334</v>
+      </c>
+      <c r="J22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mai</v>
+      </c>
+      <c r="K22" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="27">
+        <v>45418</v>
+      </c>
+      <c r="D23" s="27">
+        <v>45423</v>
+      </c>
+      <c r="E23" s="28">
+        <v>5</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="28">
+        <v>938</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="29">
+        <f t="shared" si="3"/>
+        <v>187.6</v>
+      </c>
+      <c r="J23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mai</v>
+      </c>
+      <c r="K23" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="21">
+        <v>45691</v>
+      </c>
+      <c r="D24" s="21">
+        <v>45698</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="22">
+        <v>386</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="23">
+        <f t="shared" si="3"/>
+        <v>55.142857142857146</v>
+      </c>
+      <c r="J24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K24" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="27">
+        <v>45727</v>
+      </c>
+      <c r="D25" s="27">
+        <v>45731</v>
+      </c>
+      <c r="E25" s="28">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="28">
+        <v>402</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="3"/>
+        <v>100.5</v>
+      </c>
+      <c r="J25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="21">
+        <v>45732</v>
+      </c>
+      <c r="D26" s="21">
+        <v>45736</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="22">
+        <v>370</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+      <c r="J26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K26" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="27">
+        <v>45737</v>
+      </c>
+      <c r="D27" s="27">
+        <v>45739</v>
+      </c>
+      <c r="E27" s="28">
+        <v>5</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="28">
+        <v>418</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="29">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="J27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="21">
+        <v>45740</v>
+      </c>
+      <c r="D28" s="21">
+        <v>45747</v>
+      </c>
+      <c r="E28" s="22">
+        <v>5</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="22">
+        <v>384</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="3"/>
+        <v>54.857142857142854</v>
+      </c>
+      <c r="J28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="27">
+        <v>45748</v>
+      </c>
+      <c r="D29" s="27">
+        <v>45754</v>
+      </c>
+      <c r="E29" s="28">
+        <v>4</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="28">
+        <v>400</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="21">
+        <v>45755</v>
+      </c>
+      <c r="D30" s="21">
+        <v>45759</v>
+      </c>
+      <c r="E30" s="22">
+        <v>4</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="22">
+        <v>352</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="J30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K30" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="27">
+        <v>45760</v>
+      </c>
+      <c r="D31" s="27">
+        <v>45763</v>
+      </c>
+      <c r="E31" s="28">
+        <v>5</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="28">
+        <v>368</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="3"/>
+        <v>122.66666666666667</v>
+      </c>
+      <c r="J31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="21">
+        <v>45764</v>
+      </c>
+      <c r="D32" s="21">
+        <v>45772</v>
+      </c>
+      <c r="E32" s="22">
+        <v>4</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="22">
+        <v>368</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="J32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K32" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="27">
+        <v>45773</v>
+      </c>
+      <c r="D33" s="27">
+        <v>45778</v>
+      </c>
+      <c r="E33" s="28">
+        <v>4</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="28">
+        <v>368</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="3"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mai</v>
+      </c>
+      <c r="K33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="21">
+        <v>45201</v>
+      </c>
+      <c r="D34" s="21">
+        <v>45204</v>
+      </c>
+      <c r="E34" s="22">
+        <v>5</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="22">
+        <v>406</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="23">
+        <f t="shared" si="3"/>
+        <v>135.33333333333334</v>
+      </c>
+      <c r="J34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K34" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="27">
+        <v>45205</v>
+      </c>
+      <c r="D35" s="27">
+        <v>45207</v>
+      </c>
+      <c r="E35" s="28">
+        <v>5</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="28">
+        <v>392</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="J35" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="21">
+        <v>45208</v>
+      </c>
+      <c r="D36" s="21">
+        <v>45210</v>
+      </c>
+      <c r="E36" s="22">
+        <v>5</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="22">
+        <v>378</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="J36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="27">
+        <v>45211</v>
+      </c>
+      <c r="D37" s="27">
+        <v>45214</v>
+      </c>
+      <c r="E37" s="28">
+        <v>5</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="28">
+        <v>350</v>
+      </c>
+      <c r="H37" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="29">
+        <f t="shared" si="3"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="J37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K37" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="21">
+        <v>45215</v>
+      </c>
+      <c r="D38" s="21">
+        <v>45216</v>
+      </c>
+      <c r="E38" s="22">
+        <v>3</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="22">
+        <v>182</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="23">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="J38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K38" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="27">
+        <v>45217</v>
+      </c>
+      <c r="D39" s="27">
+        <v>45218</v>
+      </c>
+      <c r="E39" s="28">
+        <v>3</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="28">
+        <v>98</v>
+      </c>
+      <c r="H39" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="J39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K39" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="21">
+        <v>45219</v>
+      </c>
+      <c r="D40" s="21">
+        <v>45220</v>
+      </c>
+      <c r="E40" s="22">
+        <v>5</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="22">
+        <v>308</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="23">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="J40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>out</v>
+      </c>
+      <c r="K40" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="27">
+        <v>45540</v>
+      </c>
+      <c r="D41" s="27">
+        <v>45550</v>
+      </c>
+      <c r="E41" s="28">
+        <v>4</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="28">
+        <v>458</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I41" s="29">
+        <f t="shared" si="3"/>
+        <v>45.8</v>
+      </c>
+      <c r="J41" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>set</v>
+      </c>
+      <c r="K41" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="21">
+        <v>45552</v>
+      </c>
+      <c r="D42" s="21">
+        <v>45561</v>
+      </c>
+      <c r="E42" s="22">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="22">
+        <v>424</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I42" s="23">
+        <f t="shared" si="3"/>
+        <v>47.111111111111114</v>
+      </c>
+      <c r="J42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>set</v>
+      </c>
+      <c r="K42" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="27">
+        <v>44965</v>
+      </c>
+      <c r="D43" s="27">
+        <v>44967</v>
+      </c>
+      <c r="E43" s="28">
+        <v>5</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="28">
+        <v>224</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I43" s="29">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="J43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K43" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="21">
+        <v>44968</v>
+      </c>
+      <c r="D44" s="21">
+        <v>44970</v>
+      </c>
+      <c r="E44" s="22">
+        <v>5</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="22">
+        <v>252</v>
+      </c>
+      <c r="H44" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I44" s="23">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="J44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K44" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="27">
+        <v>44971</v>
+      </c>
+      <c r="D45" s="27">
+        <v>44973</v>
+      </c>
+      <c r="E45" s="28">
+        <v>5</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="28">
+        <v>394</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="29">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="J45" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K45" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="21">
+        <v>44974</v>
+      </c>
+      <c r="D46" s="21">
+        <v>44978</v>
+      </c>
+      <c r="E46" s="22">
+        <v>5</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="22">
+        <v>584</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I46" s="23">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="J46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K46" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="27">
+        <v>44979</v>
+      </c>
+      <c r="D47" s="27">
+        <v>44983</v>
+      </c>
+      <c r="E47" s="28">
+        <v>5</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="28">
+        <v>704</v>
+      </c>
+      <c r="H47" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I47" s="29">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="J47" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>fev</v>
+      </c>
+      <c r="K47" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="21">
+        <v>44984</v>
+      </c>
+      <c r="D48" s="21">
+        <v>44986</v>
+      </c>
+      <c r="E48" s="22">
+        <v>5</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="22">
+        <v>472</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="23">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="J48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K48" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="27">
+        <v>44987</v>
+      </c>
+      <c r="D49" s="27">
+        <v>44990</v>
+      </c>
+      <c r="E49" s="28">
+        <v>5</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="28">
+        <v>592</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I49" s="29">
+        <f t="shared" si="3"/>
+        <v>197.33333333333334</v>
+      </c>
+      <c r="J49" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K49" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="21">
+        <v>45010</v>
+      </c>
+      <c r="D50" s="21">
+        <v>45013</v>
+      </c>
+      <c r="E50" s="22">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="22">
+        <v>255</v>
+      </c>
+      <c r="H50" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I50" s="23">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="J50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>mar</v>
+      </c>
+      <c r="K50" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="27">
+        <v>45014</v>
+      </c>
+      <c r="D51" s="27">
+        <v>45017</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="28">
+        <v>256</v>
+      </c>
+      <c r="H51" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I51" s="29">
+        <f t="shared" si="3"/>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="J51" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K51" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="21">
+        <v>45018</v>
+      </c>
+      <c r="D52" s="21">
+        <v>45020</v>
+      </c>
+      <c r="E52" s="22">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="22">
+        <v>280</v>
+      </c>
+      <c r="H52" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="23">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="J52" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K52" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="27">
+        <v>45021</v>
+      </c>
+      <c r="D53" s="27">
+        <v>45026</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="28">
+        <v>248</v>
+      </c>
+      <c r="H53" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I53" s="29">
+        <f t="shared" si="3"/>
+        <v>49.6</v>
+      </c>
+      <c r="J53" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K53" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="21">
+        <v>45027</v>
+      </c>
+      <c r="D54" s="21">
+        <v>45030</v>
+      </c>
+      <c r="E54" s="22">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="22">
+        <v>248</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="23">
+        <f t="shared" si="3"/>
+        <v>82.666666666666671</v>
+      </c>
+      <c r="J54" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K54" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="27">
+        <v>45031</v>
+      </c>
+      <c r="D55" s="27">
+        <v>45035</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="28">
+        <v>240</v>
+      </c>
+      <c r="H55" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I55" s="29">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J55" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>abr</v>
+      </c>
+      <c r="K55" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="21">
+        <v>45082</v>
+      </c>
+      <c r="D56" s="21">
+        <v>45083</v>
+      </c>
+      <c r="E56" s="22">
+        <v>5</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="22">
+        <v>288</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="23">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="J56" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K56" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="27">
+        <v>45084</v>
+      </c>
+      <c r="D57" s="27">
+        <v>45086</v>
+      </c>
+      <c r="E57" s="28">
+        <v>5</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="28">
+        <v>304</v>
+      </c>
+      <c r="H57" s="28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I57" s="29">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="J57" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K57" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="21">
+        <v>45087</v>
+      </c>
+      <c r="D58" s="21">
+        <v>45089</v>
+      </c>
+      <c r="E58" s="22">
+        <v>3</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="22">
+        <v>304</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I58" s="23">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="J58" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K58" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="27">
+        <v>45090</v>
+      </c>
+      <c r="D59" s="27">
+        <v>45093</v>
+      </c>
+      <c r="E59" s="28">
+        <v>5</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="28">
+        <v>336</v>
+      </c>
+      <c r="H59" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I59" s="29">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="J59" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K59" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="21">
+        <v>45094</v>
+      </c>
+      <c r="D60" s="21">
+        <v>45097</v>
+      </c>
+      <c r="E60" s="22">
+        <v>5</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="22">
+        <v>276</v>
+      </c>
+      <c r="H60" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I60" s="23">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="J60" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K60" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="27">
+        <v>45098</v>
+      </c>
+      <c r="D61" s="27">
+        <v>45103</v>
+      </c>
+      <c r="E61" s="28">
+        <v>3</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="28">
+        <v>304</v>
+      </c>
+      <c r="H61" s="28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I61" s="29">
+        <f t="shared" si="3"/>
+        <v>60.8</v>
+      </c>
+      <c r="J61" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
+      <c r="K61" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="21">
+        <v>45104</v>
+      </c>
+      <c r="D62" s="21">
+        <v>45108</v>
+      </c>
+      <c r="E62" s="22">
+        <v>4</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="22">
+        <v>272</v>
+      </c>
+      <c r="H62" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I62" s="23">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="J62" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K62" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="27">
+        <v>45109</v>
+      </c>
+      <c r="D63" s="27">
+        <v>45112</v>
+      </c>
+      <c r="E63" s="28">
+        <v>4</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="28">
+        <v>320</v>
+      </c>
+      <c r="H63" s="28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I63" s="29">
+        <f t="shared" si="3"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="J63" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K63" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="21">
+        <v>45113</v>
+      </c>
+      <c r="D64" s="21">
+        <v>45115</v>
+      </c>
+      <c r="E64" s="22">
+        <v>5</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="22">
+        <v>256</v>
+      </c>
+      <c r="H64" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I64" s="23">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="J64" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K64" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="32">
+        <v>45474</v>
+      </c>
+      <c r="D65" s="32">
+        <v>45477</v>
+      </c>
+      <c r="E65" s="33">
+        <v>4</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="33">
+        <v>272</v>
+      </c>
+      <c r="H65" s="33">
+        <v>3</v>
+      </c>
+      <c r="I65" s="34">
+        <f t="shared" si="3"/>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="J65" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
+      <c r="K65" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="32">
+        <v>45478</v>
+      </c>
+      <c r="D66" s="32">
+        <v>45480</v>
+      </c>
+      <c r="E66" s="33">
+        <v>5</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="33">
+        <v>304</v>
+      </c>
+      <c r="H66" s="33">
+        <f t="shared" ref="H66:H111" si="4">D66-C66</f>
+        <v>2</v>
+      </c>
+      <c r="I66" s="34">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="J66" s="34" t="str">
+        <f t="shared" ref="J66:J111" si="5">TEXT(D66,"mmm")</f>
+        <v>jul</v>
+      </c>
+      <c r="K66" s="35" t="str">
+        <f t="shared" ref="K66:K111" si="6">TEXT(D66,"aaaa")</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="32">
+        <v>45481</v>
+      </c>
+      <c r="D67" s="32">
+        <v>45485</v>
+      </c>
+      <c r="E67" s="33">
+        <v>4</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="33">
+        <v>288</v>
+      </c>
+      <c r="H67" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I67" s="34">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="J67" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K67" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="32">
+        <v>45486</v>
+      </c>
+      <c r="D68" s="32">
+        <v>45489</v>
+      </c>
+      <c r="E68" s="33">
+        <v>4</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="33">
+        <v>272</v>
+      </c>
+      <c r="H68" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I68" s="34">
+        <f t="shared" si="3"/>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="J68" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K68" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="32">
+        <v>45491</v>
+      </c>
+      <c r="D69" s="32">
+        <v>45494</v>
+      </c>
+      <c r="E69" s="33">
+        <v>4</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="33">
+        <v>272</v>
+      </c>
+      <c r="H69" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I69" s="34">
+        <f t="shared" ref="I69:I111" si="7">G69/H69</f>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="J69" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K69" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="32">
+        <v>45495</v>
+      </c>
+      <c r="D70" s="32">
+        <v>45497</v>
+      </c>
+      <c r="E70" s="33">
+        <v>5</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="33">
+        <v>272</v>
+      </c>
+      <c r="H70" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I70" s="34">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="J70" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K70" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="32">
+        <v>45498</v>
+      </c>
+      <c r="D71" s="32">
+        <v>45502</v>
+      </c>
+      <c r="E71" s="33">
+        <v>4</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="33">
+        <v>272</v>
+      </c>
+      <c r="H71" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I71" s="34">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="J71" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K71" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="32">
+        <v>45503</v>
+      </c>
+      <c r="D72" s="32">
+        <v>45506</v>
+      </c>
+      <c r="E72" s="33">
+        <v>4</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="33">
+        <v>280</v>
+      </c>
+      <c r="H72" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I72" s="34">
+        <f t="shared" si="7"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="J72" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>ago</v>
+      </c>
+      <c r="K72" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="32">
+        <v>45507</v>
+      </c>
+      <c r="D73" s="32">
+        <v>45510</v>
+      </c>
+      <c r="E73" s="33">
+        <v>4</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="33">
+        <v>272</v>
+      </c>
+      <c r="H73" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I73" s="34">
+        <f t="shared" si="7"/>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="J73" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>ago</v>
+      </c>
+      <c r="K73" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="32">
+        <v>45511</v>
+      </c>
+      <c r="D74" s="32">
+        <v>45514</v>
+      </c>
+      <c r="E74" s="33">
+        <v>4</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="33">
+        <v>288</v>
+      </c>
+      <c r="H74" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="34">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="J74" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>ago</v>
+      </c>
+      <c r="K74" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="32">
+        <v>45515</v>
+      </c>
+      <c r="D75" s="32">
+        <v>45518</v>
+      </c>
+      <c r="E75" s="33">
+        <v>4</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="33">
+        <v>304</v>
+      </c>
+      <c r="H75" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="34">
+        <f t="shared" si="7"/>
+        <v>101.33333333333333</v>
+      </c>
+      <c r="J75" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>ago</v>
+      </c>
+      <c r="K75" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="32">
+        <v>45519</v>
+      </c>
+      <c r="D76" s="32">
+        <v>45523</v>
+      </c>
+      <c r="E76" s="33">
+        <v>4</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="33">
+        <v>320</v>
+      </c>
+      <c r="H76" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I76" s="34">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="J76" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>ago</v>
+      </c>
+      <c r="K76" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="32">
+        <v>45581</v>
+      </c>
+      <c r="D77" s="32">
+        <v>45585</v>
+      </c>
+      <c r="E77" s="33">
+        <v>4</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="33">
+        <v>288</v>
+      </c>
+      <c r="H77" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I77" s="34">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="J77" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>out</v>
+      </c>
+      <c r="K77" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="32">
+        <v>45586</v>
+      </c>
+      <c r="D78" s="32">
+        <v>45590</v>
+      </c>
+      <c r="E78" s="33">
+        <v>3</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="33">
+        <v>336</v>
+      </c>
+      <c r="H78" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I78" s="34">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="J78" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>out</v>
+      </c>
+      <c r="K78" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="32">
+        <v>45050</v>
+      </c>
+      <c r="D79" s="32">
+        <v>45053</v>
+      </c>
+      <c r="E79" s="33">
+        <v>5</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="33">
+        <v>385</v>
+      </c>
+      <c r="H79" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I79" s="34">
+        <f t="shared" si="7"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="J79" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K79" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="32">
+        <v>45054</v>
+      </c>
+      <c r="D80" s="32">
+        <v>45057</v>
+      </c>
+      <c r="E80" s="33">
+        <v>5</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="33">
+        <v>498</v>
+      </c>
+      <c r="H80" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I80" s="34">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="J80" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K80" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="32">
+        <v>45058</v>
+      </c>
+      <c r="D81" s="32">
+        <v>45061</v>
+      </c>
+      <c r="E81" s="33">
+        <v>5</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="33">
+        <v>490</v>
+      </c>
+      <c r="H81" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I81" s="34">
+        <f t="shared" si="7"/>
+        <v>163.33333333333334</v>
+      </c>
+      <c r="J81" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K81" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="32">
+        <v>45062</v>
+      </c>
+      <c r="D82" s="32">
+        <v>45064</v>
+      </c>
+      <c r="E82" s="33">
+        <v>5</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="33">
+        <v>448</v>
+      </c>
+      <c r="H82" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I82" s="34">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="J82" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K82" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="32">
+        <v>45065</v>
+      </c>
+      <c r="D83" s="32">
+        <v>45069</v>
+      </c>
+      <c r="E83" s="33">
+        <v>4</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="33">
+        <v>464</v>
+      </c>
+      <c r="H83" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I83" s="34">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="J83" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K83" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="32">
+        <v>45070</v>
+      </c>
+      <c r="D84" s="32">
+        <v>45073</v>
+      </c>
+      <c r="E84" s="33">
+        <v>4</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" s="33">
+        <v>416</v>
+      </c>
+      <c r="H84" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I84" s="34">
+        <f t="shared" si="7"/>
+        <v>138.66666666666666</v>
+      </c>
+      <c r="J84" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mai</v>
+      </c>
+      <c r="K84" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="32">
+        <v>45200</v>
+      </c>
+      <c r="D85" s="32">
+        <v>45201</v>
+      </c>
+      <c r="E85" s="33">
+        <v>5</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="33">
+        <v>130</v>
+      </c>
+      <c r="H85" s="33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="34">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="J85" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>out</v>
+      </c>
+      <c r="K85" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="32">
+        <v>45202</v>
+      </c>
+      <c r="D86" s="32">
+        <v>45205</v>
+      </c>
+      <c r="E86" s="33">
+        <v>5</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="33">
+        <v>464</v>
+      </c>
+      <c r="H86" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I86" s="34">
+        <f t="shared" si="7"/>
+        <v>154.66666666666666</v>
+      </c>
+      <c r="J86" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>out</v>
+      </c>
+      <c r="K86" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="32">
+        <v>45206</v>
+      </c>
+      <c r="D87" s="32">
+        <v>45208</v>
+      </c>
+      <c r="E87" s="33">
+        <v>5</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="33">
+        <v>266</v>
+      </c>
+      <c r="H87" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I87" s="34">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="J87" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>out</v>
+      </c>
+      <c r="K87" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="32">
+        <v>45719</v>
+      </c>
+      <c r="D88" s="32">
+        <v>45722</v>
+      </c>
+      <c r="E88" s="33">
+        <v>5</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="33">
+        <v>368</v>
+      </c>
+      <c r="H88" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I88" s="34">
+        <f t="shared" si="7"/>
+        <v>122.66666666666667</v>
+      </c>
+      <c r="J88" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mar</v>
+      </c>
+      <c r="K88" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="32">
+        <v>45723</v>
+      </c>
+      <c r="D89" s="32">
+        <v>45726</v>
+      </c>
+      <c r="E89" s="33">
+        <v>5</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="33">
+        <v>336</v>
+      </c>
+      <c r="H89" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I89" s="34">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="J89" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mar</v>
+      </c>
+      <c r="K89" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="32">
+        <v>45727</v>
+      </c>
+      <c r="D90" s="32">
+        <v>45731</v>
+      </c>
+      <c r="E90" s="33">
+        <v>5</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="33">
+        <v>336</v>
+      </c>
+      <c r="H90" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I90" s="34">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="J90" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mar</v>
+      </c>
+      <c r="K90" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="32">
+        <v>45367</v>
+      </c>
+      <c r="D91" s="32">
+        <v>45369</v>
+      </c>
+      <c r="E91" s="33">
+        <v>4</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="33">
+        <v>352</v>
+      </c>
+      <c r="H91" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I91" s="34">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="J91" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>mar</v>
+      </c>
+      <c r="K91" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="32">
+        <v>45610</v>
+      </c>
+      <c r="D92" s="32">
+        <v>45612</v>
+      </c>
+      <c r="E92" s="33">
+        <v>5</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="33">
+        <v>336</v>
+      </c>
+      <c r="H92" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I92" s="34">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="J92" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>nov</v>
+      </c>
+      <c r="K92" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="32">
+        <v>45613</v>
+      </c>
+      <c r="D93" s="32">
+        <v>45615</v>
+      </c>
+      <c r="E93" s="33">
+        <v>5</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="33">
+        <v>304</v>
+      </c>
+      <c r="H93" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I93" s="34">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="J93" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>nov</v>
+      </c>
+      <c r="K93" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="32">
+        <v>45616</v>
+      </c>
+      <c r="D94" s="32">
+        <v>45621</v>
+      </c>
+      <c r="E94" s="33">
+        <v>4</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="33">
+        <v>368</v>
+      </c>
+      <c r="H94" s="33">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I94" s="34">
+        <f t="shared" si="7"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J94" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>nov</v>
+      </c>
+      <c r="K94" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="32">
+        <v>45017</v>
+      </c>
+      <c r="D95" s="32">
+        <v>45019</v>
+      </c>
+      <c r="E95" s="33">
+        <v>5</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="33">
+        <v>384</v>
+      </c>
+      <c r="H95" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I95" s="34">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="J95" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K95" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="32">
+        <v>45020</v>
+      </c>
+      <c r="D96" s="32">
+        <v>45023</v>
+      </c>
+      <c r="E96" s="33">
+        <v>4</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="33">
+        <v>384</v>
+      </c>
+      <c r="H96" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I96" s="34">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="J96" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K96" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="32">
+        <v>45024</v>
+      </c>
+      <c r="D97" s="32">
+        <v>45025</v>
+      </c>
+      <c r="E97" s="33">
+        <v>3</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="33">
+        <v>160</v>
+      </c>
+      <c r="H97" s="33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="34">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="J97" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K97" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="32">
+        <v>45026</v>
+      </c>
+      <c r="D98" s="32">
+        <v>45030</v>
+      </c>
+      <c r="E98" s="33">
+        <v>1</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="33">
+        <v>368</v>
+      </c>
+      <c r="H98" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I98" s="34">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="J98" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K98" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="32">
+        <v>45749</v>
+      </c>
+      <c r="D99" s="32">
+        <v>45754</v>
+      </c>
+      <c r="E99" s="33">
+        <v>4</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="33">
+        <v>304</v>
+      </c>
+      <c r="H99" s="33">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I99" s="34">
+        <f t="shared" si="7"/>
+        <v>60.8</v>
+      </c>
+      <c r="J99" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K99" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="32">
+        <v>45852</v>
+      </c>
+      <c r="D100" s="32">
+        <v>45856</v>
+      </c>
+      <c r="E100" s="33">
+        <v>5</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="33">
+        <v>400</v>
+      </c>
+      <c r="H100" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I100" s="34">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="J100" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jul</v>
+      </c>
+      <c r="K100" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="32">
+        <v>45755</v>
+      </c>
+      <c r="D101" s="32">
+        <v>45759</v>
+      </c>
+      <c r="E101" s="33">
+        <v>4</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="33">
+        <v>301</v>
+      </c>
+      <c r="H101" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I101" s="34">
+        <f t="shared" si="7"/>
+        <v>75.25</v>
+      </c>
+      <c r="J101" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K101" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="32">
+        <v>45262</v>
+      </c>
+      <c r="D102" s="32">
+        <v>45265</v>
+      </c>
+      <c r="E102" s="33">
+        <v>4</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="33">
+        <v>192</v>
+      </c>
+      <c r="H102" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I102" s="34">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="J102" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K102" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="32">
+        <v>45760</v>
+      </c>
+      <c r="D103" s="32">
+        <v>45763</v>
+      </c>
+      <c r="E103" s="33">
+        <v>4</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="33">
+        <v>336</v>
+      </c>
+      <c r="H103" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I103" s="34">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="J103" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>abr</v>
+      </c>
+      <c r="K103" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="32">
+        <v>45265</v>
+      </c>
+      <c r="D104" s="32">
+        <v>45266</v>
+      </c>
+      <c r="E104" s="33">
+        <v>4</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="33">
+        <v>192</v>
+      </c>
+      <c r="H104" s="33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I104" s="34">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="J104" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K104" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="32">
+        <v>45268</v>
+      </c>
+      <c r="D105" s="32">
+        <v>45271</v>
+      </c>
+      <c r="E105" s="33">
+        <v>5</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="33">
+        <v>363</v>
+      </c>
+      <c r="H105" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I105" s="34">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="J105" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K105" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="32">
+        <v>45272</v>
+      </c>
+      <c r="D106" s="32">
+        <v>45274</v>
+      </c>
+      <c r="E106" s="33">
+        <v>5</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="33">
+        <v>360</v>
+      </c>
+      <c r="H106" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I106" s="34">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="J106" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K106" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="32">
+        <v>45275</v>
+      </c>
+      <c r="D107" s="32">
+        <v>45278</v>
+      </c>
+      <c r="E107" s="33">
+        <v>5</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="33">
+        <v>352</v>
+      </c>
+      <c r="H107" s="33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I107" s="34">
+        <f t="shared" si="7"/>
+        <v>117.33333333333333</v>
+      </c>
+      <c r="J107" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K107" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="32">
+        <v>45279</v>
+      </c>
+      <c r="D108" s="32">
+        <v>45281</v>
+      </c>
+      <c r="E108" s="33">
+        <v>3</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="33">
+        <v>392</v>
+      </c>
+      <c r="H108" s="33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I108" s="34">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="J108" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K108" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="32">
+        <v>45282</v>
+      </c>
+      <c r="D109" s="32">
+        <v>45286</v>
+      </c>
+      <c r="E109" s="33">
+        <v>4</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="33">
+        <v>312</v>
+      </c>
+      <c r="H109" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I109" s="34">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="J109" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>dez</v>
+      </c>
+      <c r="K109" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="32">
+        <v>45292</v>
+      </c>
+      <c r="D110" s="32">
+        <v>45296</v>
+      </c>
+      <c r="E110" s="33">
+        <v>5</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="33">
+        <v>448</v>
+      </c>
+      <c r="H110" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I110" s="34">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="J110" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jan</v>
+      </c>
+      <c r="K110" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="32">
+        <v>45298</v>
+      </c>
+      <c r="D111" s="32">
+        <v>45302</v>
+      </c>
+      <c r="E111" s="33">
+        <v>4</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="33">
+        <v>328</v>
+      </c>
+      <c r="H111" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I111" s="34">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="J111" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>jan</v>
+      </c>
+      <c r="K111" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0"/>
+  <dimension ref="A3:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="8">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0"/>
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>39710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O111"/>
+  <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21128,42 +26392,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
-  <dimension ref="A3:A4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>39710</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -21180,7 +26413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:B9"/>
@@ -21264,7 +26497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:D10"/>
@@ -21334,7 +26567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:A4"/>
@@ -21371,7 +26604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:B24"/>
@@ -21508,7 +26741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:B16"/>
@@ -21641,7 +26874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A3:E19"/>
@@ -21800,161 +27033,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
-  <dimension ref="A3:B19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="8">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>